--- a/Documentation/Design/People Worksheet.xlsx
+++ b/Documentation/Design/People Worksheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="1137">
   <si>
     <t>Accessible</t>
   </si>
@@ -3395,6 +3395,45 @@
   </si>
   <si>
     <t> Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>idPersonLanguage</t>
+  </si>
+  <si>
+    <t>intNameNationLanguage</t>
+  </si>
+  <si>
+    <t>strNameNationLanguageNotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could include Afrikaans                                                                                                                                                                                                                                                                                                                                                                                                                                                                                             </t>
+  </si>
+  <si>
+    <t>Hindustani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes Hindi Belt and Urdu                                                                                                                                                                                                                                                                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could include Malay                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 </t>
+  </si>
+  <si>
+    <t>Scandinavian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes Swedish, Norwiegian, Finnish                                                                                                                                                                                                                                                                                                                                                                                                                                                                               </t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language other than listed                                                                                                                                                                                                                                                                                                                                                                                                                                                                                          </t>
   </si>
 </sst>
 </file>
@@ -9761,18 +9800,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P202"/>
+  <dimension ref="A1:P223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <pane ySplit="27" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.140625" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
@@ -9781,1461 +9821,1681 @@
     <col min="13" max="13" width="119" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>655</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
       <c r="B6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>858</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>864</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>697</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>876</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>800</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>883</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>887</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>709</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>904</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>911</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>914</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>918</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>922</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>925</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>949</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C27" t="s">
         <v>943</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D27" t="s">
         <v>944</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E27" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>656</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B28" t="s">
         <v>951</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J28" s="8" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>657</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J29" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>658</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I30" t="s">
         <v>946</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K30" s="8" t="s">
         <v>957</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L30" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M30" s="8" t="s">
         <v>959</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N30" s="8" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>659</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B31" t="s">
         <v>952</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C31" t="s">
         <v>714</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D31" t="s">
         <v>714</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E31" t="s">
         <v>864</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I31" t="s">
         <v>947</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J31" t="s">
         <v>714</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K31" t="s">
         <v>853</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L31" t="s">
         <v>854</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M31" t="s">
         <v>855</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N31" t="s">
         <v>856</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O31" t="s">
         <v>857</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P31" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>660</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I32" t="s">
         <v>948</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J32" t="s">
         <v>858</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K32" t="s">
         <v>859</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L32" t="s">
         <v>860</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M32" t="s">
         <v>861</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N32" t="s">
         <v>862</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O32" t="s">
         <v>863</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P32" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>661</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B33" t="s">
         <v>953</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J33" t="s">
         <v>864</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K33" t="s">
         <v>865</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L33" t="s">
         <v>866</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M33" t="s">
         <v>867</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N33" t="s">
         <v>868</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O33" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>662</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B34" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>664</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J36" t="s">
         <v>872</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K36" t="s">
         <v>873</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L36" t="s">
         <v>874</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M36" t="s">
         <v>875</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N36" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>665</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J37" t="s">
         <v>876</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L37" t="s">
         <v>896</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M37" t="s">
         <v>879</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N37" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>666</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B38" t="s">
         <v>965</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L38" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>667</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B39" t="s">
         <v>956</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C39" t="s">
         <v>714</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D39" t="s">
         <v>714</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L39" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>668</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J40" t="s">
         <v>800</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K40" t="s">
         <v>880</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L40" t="s">
         <v>881</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M40" t="s">
         <v>882</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N40" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>669</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J41" t="s">
         <v>883</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K41" t="s">
         <v>884</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L41" t="s">
         <v>885</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M41" t="s">
         <v>886</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N41" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>670</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J42" t="s">
         <v>887</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K42" t="s">
         <v>888</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L42" t="s">
         <v>889</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M42" t="s">
         <v>890</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N42" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>671</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B43" t="s">
         <v>950</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J43" t="s">
         <v>891</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K43" t="s">
         <v>892</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L43" t="s">
         <v>893</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M43" t="s">
         <v>894</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N43" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>672</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B44" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>673</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J45" t="s">
         <v>902</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K45" t="s">
         <v>929</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L45" t="s">
         <v>930</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M45" t="s">
         <v>903</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N45" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>674</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B46" t="s">
         <v>956</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J46" t="s">
         <v>904</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K46" t="s">
         <v>880</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L46" t="s">
         <v>905</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M46" t="s">
         <v>906</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N46" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>675</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B47" t="s">
         <v>956</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J47" t="s">
         <v>907</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K47" t="s">
         <v>908</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L47" t="s">
         <v>909</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M47" t="s">
         <v>910</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N47" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>676</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B48" t="s">
         <v>956</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J48" t="s">
         <v>911</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K48" t="s">
         <v>912</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L48" t="s">
         <v>934</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M48" t="s">
         <v>913</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N48" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>677</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J49" t="s">
         <v>914</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K49" t="s">
         <v>915</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L49" t="s">
         <v>916</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M49" t="s">
         <v>917</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N49" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>678</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B50" t="s">
         <v>952</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J50" t="s">
         <v>918</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K50" t="s">
         <v>919</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L50" t="s">
         <v>937</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M50" t="s">
         <v>920</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N50" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>679</v>
-      </c>
-      <c r="B30" t="s">
-        <v>953</v>
-      </c>
-      <c r="M30" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>680</v>
-      </c>
-      <c r="B31" t="s">
-        <v>956</v>
-      </c>
-      <c r="J31" t="s">
-        <v>922</v>
-      </c>
-      <c r="K31" t="s">
-        <v>908</v>
-      </c>
-      <c r="L31" t="s">
-        <v>923</v>
-      </c>
-      <c r="M31" t="s">
-        <v>924</v>
-      </c>
-      <c r="N31" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>681</v>
-      </c>
-      <c r="B32" t="s">
-        <v>954</v>
-      </c>
-      <c r="J32" t="s">
-        <v>925</v>
-      </c>
-      <c r="K32" t="s">
-        <v>926</v>
-      </c>
-      <c r="L32" t="s">
-        <v>927</v>
-      </c>
-      <c r="M32" t="s">
-        <v>928</v>
-      </c>
-      <c r="N32" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>683</v>
-      </c>
-      <c r="B34" t="s">
-        <v>956</v>
-      </c>
-      <c r="C34" t="s">
-        <v>714</v>
-      </c>
-      <c r="D34" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>686</v>
-      </c>
-      <c r="B37" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>690</v>
-      </c>
-      <c r="B41" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>691</v>
-      </c>
-      <c r="B42" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>692</v>
-      </c>
-      <c r="B43" t="s">
-        <v>952</v>
-      </c>
-      <c r="C43" t="s">
-        <v>714</v>
-      </c>
-      <c r="D43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E43" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>695</v>
-      </c>
-      <c r="B46" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>696</v>
-      </c>
-      <c r="B47" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>697</v>
-      </c>
-      <c r="B48" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>698</v>
-      </c>
-      <c r="B49" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>700</v>
       </c>
       <c r="B51" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="M51" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="B52" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>922</v>
+      </c>
+      <c r="K52" t="s">
+        <v>908</v>
+      </c>
+      <c r="L52" t="s">
+        <v>923</v>
+      </c>
+      <c r="M52" t="s">
+        <v>924</v>
+      </c>
+      <c r="N52" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="B53" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>954</v>
+      </c>
+      <c r="J53" t="s">
+        <v>925</v>
+      </c>
+      <c r="K53" t="s">
+        <v>926</v>
+      </c>
+      <c r="L53" t="s">
+        <v>927</v>
+      </c>
+      <c r="M53" t="s">
+        <v>928</v>
+      </c>
+      <c r="N53" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>703</v>
-      </c>
-      <c r="B54" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="B55" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>714</v>
+      </c>
+      <c r="D55" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>686</v>
+      </c>
+      <c r="B58" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>690</v>
+      </c>
+      <c r="B62" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>691</v>
+      </c>
+      <c r="B63" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>692</v>
+      </c>
+      <c r="B64" t="s">
+        <v>952</v>
+      </c>
+      <c r="C64" t="s">
+        <v>714</v>
+      </c>
+      <c r="D64" t="s">
+        <v>714</v>
+      </c>
+      <c r="E64" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>695</v>
+      </c>
+      <c r="B67" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>696</v>
+      </c>
+      <c r="B68" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>697</v>
+      </c>
+      <c r="B69" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>698</v>
+      </c>
+      <c r="B70" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>700</v>
+      </c>
+      <c r="B72" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>701</v>
+      </c>
+      <c r="B73" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>702</v>
+      </c>
+      <c r="B74" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>703</v>
+      </c>
+      <c r="B75" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>704</v>
+      </c>
+      <c r="B76" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>705</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B77" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>706</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B78" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>714</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C86" t="s">
         <v>714</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D86" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>724</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>772</v>
+        <v>751</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>775</v>
+        <v>754</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>802</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C174" t="s">
         <v>858</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D174" t="s">
         <v>858</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E174" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>811</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C183" t="s">
         <v>714</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D183" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>848</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C220" t="s">
         <v>714</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D220" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>851</v>
       </c>
     </row>
@@ -11249,7 +11509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
